--- a/kbDATA Criteria.xlsx
+++ b/kbDATA Criteria.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kbdmch-my.sharepoint.com/personal/r_dobler_kbdirect_ch/Documents/[kbDATA]/DATA_META/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.dobler\Documents\GitHub\kbDATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{C7DD7A03-68C9-488E-ADCF-5484460E7B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1AA8E8B-09B1-4324-98C7-E02E512F6209}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C9924-5919-4D3C-879D-1626F5E7AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A82AF561-68C3-4CA2-8953-73AFC23DFBBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A82AF561-68C3-4CA2-8953-73AFC23DFBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="2" r:id="rId1"/>
     <sheet name="Criteria" sheetId="1" r:id="rId2"/>
     <sheet name="Codes" sheetId="4" r:id="rId3"/>
+    <sheet name="Test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1798,15 +1799,15 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>211</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>188</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1971,29 +1972,29 @@
       <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3046875" defaultRowHeight="14.6" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.84375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="116.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="32.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.53515625" customWidth="1"/>
+    <col min="10" max="10" width="38.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="116.3046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.69140625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="12.3046875" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="21" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A33" si="0">CONCATENATE(B2,C2,F2)</f>
         <v>zipCode6Language3c</v>
@@ -2094,7 +2095,7 @@
         <v>1597571073</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6Type5c</v>
@@ -2133,7 +2134,7 @@
         <v>1597046785</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6PromoPostCategory3c</v>
@@ -2178,7 +2179,7 @@
         <v>1598717953</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6Canton27c</v>
@@ -2223,7 +2224,7 @@
         <v>1642135553</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -2268,7 +2269,7 @@
         <v>1642528769</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6MarketArea3c</v>
@@ -2301,7 +2302,7 @@
         <v>("PLZ6 – Quickline Marktgebiet (3c)", NAMEOF('Dim - ZipCode6Language - PromoPost'[]), ),</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>zipCode6PartnerArea</v>
@@ -2331,7 +2332,7 @@
         <v>("PLZ6 – Quickline Partner ", NAMEOF('Dim - ZipCode6Language - PromoPost'[]), ),</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingLanguage3c</v>
@@ -2373,7 +2374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingHomeOwnership2c</v>
@@ -2430,7 +2431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingNeedForAnonymity9c</v>
@@ -2484,7 +2485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingProportionOfForeigners9c</v>
@@ -2538,7 +2539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingFamillyStructure9c</v>
@@ -2592,7 +2593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingFluctuation9c</v>
@@ -2646,7 +2647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingPurchasingPower4c</v>
@@ -2700,7 +2701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingDominantSinusMilieu10c</v>
@@ -2754,7 +2755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingDonationAffinity9c</v>
@@ -2808,7 +2809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingStreetTyp5c</v>
@@ -2862,7 +2863,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingMovingBalance9c</v>
@@ -2916,7 +2917,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingMovingVolume9c</v>
@@ -2970,7 +2971,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingCreditRisk9c</v>
@@ -3024,7 +3025,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingBuildingType4c</v>
@@ -3066,7 +3067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>kbBuildingHouseType7c</v>
@@ -3120,7 +3121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>postBuildingFarminghouseT|F</v>
@@ -3162,7 +3163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>postBuildingHolidayHomeT|F</v>
@@ -3204,7 +3205,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -3258,7 +3259,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>postBuildingAdvertisingStopStickerProportion6c</v>
@@ -3312,7 +3313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingBuildingCategory6c</v>
@@ -3366,7 +3367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingBuildingClass</v>
@@ -3417,7 +3418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingConstructionPeriod13c</v>
@@ -3471,7 +3472,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingStatus5c</v>
@@ -3525,7 +3526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingType4c</v>
@@ -3567,7 +3568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>gwrBuildingHeatingHeatGenerator9c</v>
@@ -3609,7 +3610,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f t="shared" ref="A34:A52" si="4">CONCATENATE(B34,C34,F34)</f>
         <v>gwrBuildingHeatingEnergySource14c</v>
@@ -3651,7 +3652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdNoAdults5c</v>
@@ -3696,7 +3697,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdNoChildren4c</v>
@@ -3741,7 +3742,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdAgeClassOfOldestChild4c</v>
@@ -3771,7 +3772,7 @@
         <v>("HH – Alterklasse ältestes Kind im HH (4c)", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdAgeClassOfYoungestChild4c</v>
@@ -3801,7 +3802,7 @@
         <v>("HH – Alterklasse jüngstes Kind im HH (4c)", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdPurchasingPower4c</v>
@@ -3843,7 +3844,7 @@
         <v>("HH – Kaufkraft (4c)", NAMEOF('Dim - kbPerson'[HH_BUYING_POWER]), 403),</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdAffinityForSustainability5c</v>
@@ -3885,7 +3886,7 @@
         <v>("HH – Affinität für Nachhaltigkeit (5c)", NAMEOF('Dim - kbPerson'[HH_SUSTAINABILITY_CLASSIFICATION]), 404),</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdAdvertisingAbilityDmAllowedJ|N</v>
@@ -3915,7 +3916,7 @@
         <v>("HH – Werbefähigkeit – DM möglich (J|N)", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
         <f t="shared" si="4"/>
         <v>kbHouseholdAdvertisingAbilityTmAllowedJ|N</v>
@@ -3945,7 +3946,7 @@
         <v>("HH – Werbefähigkeit – TM möglich (J|N)", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonGender2c</v>
@@ -3975,7 +3976,7 @@
         <v>("PRS – Geschlecht (2c)", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonHouseholdPosition4c</v>
@@ -4008,7 +4009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
         <f t="shared" si="4"/>
         <v>kbPerson5YearAgeGroup18c</v>
@@ -4050,7 +4051,7 @@
         <v>("PRS – 5-Jahres-Altersklasse (18c)", NAMEOF('Dim - kbPerson'[PE_AGE_GROUP_5]), 501),</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonCivilStatus3c</v>
@@ -4095,7 +4096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonEducationLevel4c</v>
@@ -4137,7 +4138,7 @@
         <v>("PRS – Ausbildungsgrad (4c)", NAMEOF('Dim - kbPerson'[PE_JOB_SKILLLEVEL]), 502),</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonFunctionalLevel6c</v>
@@ -4179,7 +4180,7 @@
         <v>("PRS – Funktionsstufe (6c)", NAMEOF('Dim - kbPerson'[PE_JOB_FUNCTION]), 502),</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
         <f>CONCATENATE(B49,C49,F49)</f>
         <v>kbPersonPurchasingPower4c</v>
@@ -4221,7 +4222,7 @@
         <v>("PRS – Kaufkraft (4c)", NAMEOF('Dim - kbPerson'[PE_BUYING_POWER]), 502),</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonIncomeClass7c</v>
@@ -4263,7 +4264,7 @@
         <v>("PRS – Einkommensklasse (7c)", NAMEOF('Dim - kbPerson'[PE_INCOME_YEAR_LEVEL]), 502),</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonCreditRisk3c</v>
@@ -4305,7 +4306,7 @@
         <v>("PRS – Bonitätsrisiko (3c)", NAMEOF('Dim - kbPerson'[PE_CREDIT_RATING_LIGHT]), 502),</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
         <f t="shared" si="4"/>
         <v>kbPersonSinusMilieu10c</v>
@@ -4350,7 +4351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
         <f t="shared" ref="A53:A63" si="6">CONCATENATE(B53,C53,F53)</f>
         <v>kbPersonLanguage</v>
@@ -4380,7 +4381,7 @@
         <v>("PRS – Sprache ", NAMEOF(''[]), ),</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonAdvertisingAbilityDmAllowedJ|N</v>
@@ -4422,7 +4423,7 @@
         <v>("PRS – Werbefähigkeit – DM möglich (J|N)", NAMEOF('Dim - kbPerson'[DIRECT_MAIL_ALLOWED]), 502),</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonAdvertisingAbilityTmAllowedJ|N</v>
@@ -4464,7 +4465,7 @@
         <v>("PRS – Werbefähigkeit – TM möglich (J|N)", NAMEOF('Dim - kbPerson'[DIRECT_PHONE_ALLOWED]), 502),</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonLifeCycle7c</v>
@@ -4509,7 +4510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonAcademicJ|N</v>
@@ -4551,7 +4552,7 @@
         <v>("PRS – Akademiker (J|N)", NAMEOF('Dim - kbPerson'[PE_IS_ACADEMIC]), 502),</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonJobGroupsBfs8c</v>
@@ -4596,7 +4597,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonJobGroupsIsco9c</v>
@@ -4641,7 +4642,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonNameOrigin</v>
@@ -4683,7 +4684,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonVacationHome</v>
@@ -4725,7 +4726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonDonationAffinity</v>
@@ -4764,7 +4765,7 @@
         <v>("PRS – Spenden-Affinität ", NAMEOF('Dim - kbPerson'[PE_DONATION_AFFINITY]), 502),</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
         <f t="shared" si="6"/>
         <v>kbPersonNoBoardMandates2c</v>
@@ -4820,26 +4821,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FE6A30-2594-4E67-8EAB-08C3600D4C4A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="76.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="11"/>
+    <col min="1" max="1" width="44.3046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.3046875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.84375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.84375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.3828125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.15234375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="76.15234375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.3046875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="str">
         <f>'Criteria'!A$2</f>
         <v>zipCode6Language3c</v>
@@ -4896,7 +4897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="str">
         <f>'Criteria'!A$2</f>
         <v>zipCode6Language3c</v>
@@ -4924,7 +4925,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="str">
         <f>'Criteria'!A$2</f>
         <v>zipCode6Language3c</v>
@@ -4952,7 +4953,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="str">
         <f>'Criteria'!A$2</f>
         <v>zipCode6Language3c</v>
@@ -4980,7 +4981,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="str">
         <f>'Criteria'!A$2</f>
         <v>zipCode6Language3c</v>
@@ -5008,7 +5009,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="str">
         <f>'Criteria'!A$4</f>
         <v>zipCode6PromoPostCategory3c</v>
@@ -5034,7 +5035,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="str">
         <f>'Criteria'!A$4</f>
         <v>zipCode6PromoPostCategory3c</v>
@@ -5060,7 +5061,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="str">
         <f>'Criteria'!A$4</f>
         <v>zipCode6PromoPostCategory3c</v>
@@ -5086,7 +5087,7 @@
         <v>[A] A-Orte: Städte und Agglomerationen</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="str">
         <f>'Criteria'!A$4</f>
         <v>zipCode6PromoPostCategory3c</v>
@@ -5112,7 +5113,7 @@
         <v>[B] B-Orte: kleine Städte und grosse Ortschaften</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="str">
         <f>'Criteria'!A$4</f>
         <v>zipCode6PromoPostCategory3c</v>
@@ -5138,7 +5139,7 @@
         <v>[C] C-Orte: ländliche Gegenden (kleine Ortschaften)</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5161,7 +5162,7 @@
         <v>[-] keine PLZ6 vorhanden</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5184,7 +5185,7 @@
         <v>[u] unbekannt</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5210,7 +5211,7 @@
         <v>[-2] sehr niedrig</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5236,7 +5237,7 @@
         <v>[-1] niedrig</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5262,7 +5263,7 @@
         <v>[0] mittel</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5288,7 +5289,7 @@
         <v>[+1] hoch</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="str">
         <f>'Criteria'!A$6</f>
         <v>zipCode6AdvertisingStopStickerProportion5c</v>
@@ -5314,7 +5315,7 @@
         <v>[+2] sehr hoch</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5340,7 +5341,7 @@
         <v>[1] Index -80% | -100%</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5366,7 +5367,7 @@
         <v>[1] Index -80% | -100%</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5392,7 +5393,7 @@
         <v>[2] Index -60%</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5418,7 +5419,7 @@
         <v>[3] Index -40%</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5444,7 +5445,7 @@
         <v>[4] Index -20%</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5470,7 +5471,7 @@
         <v>[u] unbekannt</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5496,7 +5497,7 @@
         <v>[5] Index 0% (Ø)</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5522,7 +5523,7 @@
         <v>[6] Index 20% | 40%</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5548,7 +5549,7 @@
         <v>[6] Index 20% | 40%</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5574,7 +5575,7 @@
         <v>[7] Index 60% | 80% | 100%</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5600,7 +5601,7 @@
         <v>[7] Index 60% | 80% | 100%</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5626,7 +5627,7 @@
         <v>[7] Index 60% | 80% | 100%</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5652,7 +5653,7 @@
         <v>[8] Index 120% | 140% | 160%</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5678,7 +5679,7 @@
         <v>[8] Index 120% | 140% | 160%</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5704,7 +5705,7 @@
         <v>[8] Index 120% | 140% | 160%</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5730,7 +5731,7 @@
         <v>[9] Index 180% | 200%</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="str">
         <f>'Criteria'!A$26</f>
         <v>postBuildingQuickmailActivityIndex9c</v>
@@ -5756,7 +5757,7 @@
         <v>[9] Index 180% | 200%</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="str">
         <f>'Criteria'!A$35</f>
         <v>kbHouseholdNoAdults5c</v>
@@ -5782,7 +5783,7 @@
         <v>[1] 1 erwachsene Person</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="str">
         <f>'Criteria'!A$35</f>
         <v>kbHouseholdNoAdults5c</v>
@@ -5808,7 +5809,7 @@
         <v>[3] 2 erwachsene Personen</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="str">
         <f>'Criteria'!A$35</f>
         <v>kbHouseholdNoAdults5c</v>
@@ -5834,7 +5835,7 @@
         <v>[3] 3 erwachsene Personen</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="str">
         <f>'Criteria'!A$35</f>
         <v>kbHouseholdNoAdults5c</v>
@@ -5860,7 +5861,7 @@
         <v>[4] 4 erwachsene Personen</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="str">
         <f>'Criteria'!A$35</f>
         <v>kbHouseholdNoAdults5c</v>
@@ -5886,7 +5887,7 @@
         <v>[5] 5+ erwachsene Personen</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="str">
         <f>'Criteria'!A$36</f>
         <v>kbHouseholdNoChildren4c</v>
@@ -5912,7 +5913,7 @@
         <v>[0] 0 Kinder (oder unbekannt)</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="str">
         <f>'Criteria'!A$36</f>
         <v>kbHouseholdNoChildren4c</v>
@@ -5938,7 +5939,7 @@
         <v>[1] 1 Kind</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="str">
         <f>'Criteria'!A$36</f>
         <v>kbHouseholdNoChildren4c</v>
@@ -5964,7 +5965,7 @@
         <v>[2] 2 Kinder</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="str">
         <f>'Criteria'!A$36</f>
         <v>kbHouseholdNoChildren4c</v>
@@ -5990,7 +5991,7 @@
         <v>[3] 3 Kinder</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="str">
         <f>'Criteria'!A$36</f>
         <v>kbHouseholdNoChildren4c</v>
@@ -6016,7 +6017,7 @@
         <v>[4] 4+ Kinder</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="str">
         <f>'Criteria'!A$57</f>
         <v>kbPersonAcademicJ|N</v>
@@ -6042,7 +6043,7 @@
         <v>[N] Nein (oder unbekannt)</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="str">
         <f>'Criteria'!A$57</f>
         <v>kbPersonAcademicJ|N</v>
@@ -6068,7 +6069,7 @@
         <v>[J] Ja</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="str">
         <f>'Criteria'!A$63</f>
         <v>kbPersonNoBoardMandates2c</v>
@@ -6094,7 +6095,7 @@
         <v>[0] 0 (oder unbekannt)</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="str">
         <f>'Criteria'!A$63</f>
         <v>kbPersonNoBoardMandates2c</v>
@@ -6120,7 +6121,7 @@
         <v>[1] 1 Mandat</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="str">
         <f>'Criteria'!A$63</f>
         <v>kbPersonNoBoardMandates2c</v>
@@ -6146,7 +6147,7 @@
         <v>[2] 2 oder mehr Mandate</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
         <v>319</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>[u] unbekannt</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
         <v>319</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>[11] Konservativ-Arrivierte</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
         <v>319</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>[12] Postmaterielle</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
         <v>319</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>[13] Performer</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
         <v>319</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>[41] Kosmopolitische Individualisten</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
         <v>319</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>[33] Adaptiv-Pragmatische Mitte</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
         <v>319</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>[32] Nostalgisch-Bürgerliche</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
         <v>319</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>[31] Traditionelle</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>319</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>[21] Konsumorientierte Basis</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
         <v>319</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>[42] Hedonisten</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="11" t="s">
         <v>319</v>
       </c>
@@ -6432,4 +6433,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7734965-1212-4635-98AF-52D9D69A5664}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>